--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/陈列店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/陈列店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">零售客户编码</t>
   </si>
@@ -38,46 +38,52 @@
     <t xml:space="preserve">店铺会员数</t>
   </si>
   <si>
-    <t xml:space="preserve">000565653231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩玉密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华阳店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">华阳金棕榈</t>
+    <t xml:space="preserve">511621100513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">祝建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小清清店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省成都市双流区</t>
   </si>
   <si>
     <t xml:space="preserve">13880954084</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001456454566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨帆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小王高档烟酒店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西安市未央区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陕西省西安市未央区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18161222015</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511621201874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒋光辉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光辉超市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省广安市岳池县苟角镇接龙桥北街27号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08265617608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺推广码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试店铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川省成都市武侯区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028-4536235</t>
   </si>
 </sst>
 </file>
@@ -183,34 +189,52 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/陈列店铺.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/陈列店铺.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">零售客户编码</t>
   </si>
@@ -38,52 +38,46 @@
     <t xml:space="preserve">店铺会员数</t>
   </si>
   <si>
-    <t xml:space="preserve">511621100513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">祝建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小清清店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川省成都市双流区</t>
+    <t xml:space="preserve">000565653231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩玉密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华阳店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华阳金棕榈</t>
   </si>
   <si>
     <t xml:space="preserve">13880954084</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001456454566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小王高档烟酒店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西安市未央区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陕西省西安市未央区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161222015</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511621201874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒋光辉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">光辉超市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川省广安市岳池县苟角镇接龙桥北街27号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08265617608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺推广码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试店铺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川省成都市武侯区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028-4536235</t>
   </si>
 </sst>
 </file>
@@ -189,52 +183,34 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
